--- a/dsa/DSA_Assingment2/students.xlsx
+++ b/dsa/DSA_Assingment2/students.xlsx
@@ -35,10 +35,10 @@
     <t>Name1</t>
   </si>
   <si>
+    <t>IT1</t>
+  </si>
+  <si>
     <t>IT0</t>
-  </si>
-  <si>
-    <t>IT1</t>
   </si>
   <si>
     <t>Name2</t>
@@ -1041,7 +1041,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1058,13 +1058,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1084,13 +1084,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -1098,19 +1098,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -1124,10 +1124,10 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -1144,13 +1144,13 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1158,19 +1158,19 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1178,16 +1178,16 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1207,7 +1207,7 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1224,13 +1224,13 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -1238,19 +1238,19 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1267,10 +1267,10 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1278,19 +1278,19 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1298,10 +1298,10 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -1310,7 +1310,7 @@
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1324,13 +1324,13 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -1341,16 +1341,16 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1361,7 +1361,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -1370,7 +1370,7 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1378,7 +1378,7 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -1398,19 +1398,19 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -1418,13 +1418,13 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
         <v>24</v>
@@ -1444,10 +1444,10 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
         <v>26</v>
@@ -1458,19 +1458,19 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1478,10 +1478,10 @@
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -1501,16 +1501,16 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1524,13 +1524,13 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1547,7 +1547,7 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1558,16 +1558,16 @@
         <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
@@ -1578,16 +1578,16 @@
         <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
@@ -1601,7 +1601,7 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
         <v>20</v>
@@ -1610,7 +1610,7 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -1621,16 +1621,16 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
@@ -1638,7 +1638,7 @@
         <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
         <v>24</v>
@@ -1647,7 +1647,7 @@
         <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
         <v>24</v>
@@ -1667,10 +1667,10 @@
         <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34">
@@ -1678,16 +1678,16 @@
         <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
         <v>26</v>
@@ -1707,7 +1707,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
         <v>7</v>
@@ -1718,19 +1718,19 @@
         <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1738,7 +1738,7 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
@@ -1747,7 +1747,7 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -1758,19 +1758,19 @@
         <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -1778,10 +1778,10 @@
         <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
@@ -1790,7 +1790,7 @@
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -1798,7 +1798,7 @@
         <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -1810,7 +1810,7 @@
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -1821,13 +1821,13 @@
         <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
@@ -1847,10 +1847,10 @@
         <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
@@ -1864,13 +1864,13 @@
         <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
         <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
@@ -1884,13 +1884,13 @@
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
         <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
@@ -1898,19 +1898,19 @@
         <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -1918,19 +1918,19 @@
         <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -1938,19 +1938,19 @@
         <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -1961,16 +1961,16 @@
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1978,7 +1978,7 @@
         <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -1987,10 +1987,10 @@
         <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
@@ -2001,13 +2001,13 @@
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
@@ -2021,7 +2021,7 @@
         <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
         <v>16</v>
@@ -2030,7 +2030,7 @@
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -2041,16 +2041,16 @@
         <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E52" t="s">
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -2058,13 +2058,13 @@
         <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E53" t="s">
         <v>20</v>
@@ -2118,19 +2118,19 @@
         <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E56" t="s">
         <v>26</v>
       </c>
       <c r="F56" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -2138,19 +2138,19 @@
         <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -2158,19 +2158,19 @@
         <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -2178,16 +2178,16 @@
         <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
         <v>12</v>
@@ -2198,16 +2198,16 @@
         <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
@@ -2238,16 +2238,16 @@
         <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
         <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
@@ -2258,19 +2258,19 @@
         <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
@@ -2278,10 +2278,10 @@
         <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
         <v>20</v>
@@ -2298,7 +2298,7 @@
         <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C65" t="s">
         <v>22</v>
@@ -2310,7 +2310,7 @@
         <v>24</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
@@ -2318,13 +2318,13 @@
         <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E66" t="s">
         <v>24</v>
@@ -2341,16 +2341,16 @@
         <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
         <v>26</v>
       </c>
       <c r="E67" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -2361,10 +2361,10 @@
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E68" t="s">
         <v>7</v>
@@ -2378,19 +2378,19 @@
         <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -2398,16 +2398,16 @@
         <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
         <v>12</v>
@@ -2424,13 +2424,13 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72">
@@ -2441,16 +2441,16 @@
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
@@ -2470,7 +2470,7 @@
         <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
@@ -2478,13 +2478,13 @@
         <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
         <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E74" t="s">
         <v>18</v>
@@ -2501,16 +2501,16 @@
         <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D75" t="s">
         <v>20</v>
       </c>
       <c r="E75" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
@@ -2518,19 +2518,19 @@
         <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C76" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D76" t="s">
         <v>24</v>
       </c>
       <c r="E76" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77">
@@ -2538,16 +2538,16 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
         <v>24</v>
       </c>
       <c r="E77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F77" t="s">
         <v>26</v>
@@ -2558,19 +2558,19 @@
         <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E78" t="s">
         <v>26</v>
       </c>
       <c r="F78" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
@@ -2578,7 +2578,7 @@
         <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
@@ -2587,7 +2587,7 @@
         <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F79" t="s">
         <v>7</v>
@@ -2598,19 +2598,19 @@
         <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -2618,7 +2618,7 @@
         <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
         <v>10</v>
@@ -2641,16 +2641,16 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -2661,7 +2661,7 @@
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
         <v>14</v>
@@ -2678,19 +2678,19 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E84" t="s">
         <v>18</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
@@ -2698,7 +2698,7 @@
         <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
         <v>20</v>
@@ -2727,7 +2727,7 @@
         <v>22</v>
       </c>
       <c r="E86" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F86" t="s">
         <v>20</v>
@@ -2758,10 +2758,10 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s">
         <v>26</v>
@@ -2770,7 +2770,7 @@
         <v>26</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
@@ -2778,19 +2778,19 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E89" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -2801,13 +2801,13 @@
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F90" t="s">
         <v>8</v>
@@ -2818,10 +2818,10 @@
         <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D91" t="s">
         <v>10</v>
@@ -2830,7 +2830,7 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
@@ -2847,10 +2847,10 @@
         <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93">
@@ -2861,16 +2861,16 @@
         <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
@@ -2881,16 +2881,16 @@
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
         <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
@@ -2898,19 +2898,19 @@
         <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
         <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E95" t="s">
         <v>16</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
@@ -2921,16 +2921,16 @@
         <v>20</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E96" t="s">
         <v>18</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
@@ -2938,19 +2938,19 @@
         <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C97" t="s">
         <v>22</v>
       </c>
       <c r="D97" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E97" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98">
@@ -2964,13 +2964,13 @@
         <v>24</v>
       </c>
       <c r="D98" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E98" t="s">
         <v>24</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99">
@@ -2978,7 +2978,7 @@
         <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C99" t="s">
         <v>24</v>
@@ -2987,10 +2987,10 @@
         <v>26</v>
       </c>
       <c r="E99" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F99" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100">
@@ -3001,16 +3001,16 @@
         <v>26</v>
       </c>
       <c r="C100" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F100" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
@@ -3018,7 +3018,7 @@
         <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
@@ -3027,10 +3027,10 @@
         <v>8</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
@@ -3038,19 +3038,19 @@
         <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E102" t="s">
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
@@ -3058,19 +3058,19 @@
         <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104">
@@ -3081,16 +3081,16 @@
         <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E104" t="s">
         <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105">
@@ -3098,13 +3098,13 @@
         <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E105" t="s">
         <v>14</v>
@@ -3118,16 +3118,16 @@
         <v>121</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
@@ -3141,13 +3141,13 @@
         <v>18</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E107" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F107" t="s">
         <v>18</v>
@@ -3167,10 +3167,10 @@
         <v>22</v>
       </c>
       <c r="E108" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109">
@@ -3178,7 +3178,7 @@
         <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C109" t="s">
         <v>24</v>
@@ -3190,7 +3190,7 @@
         <v>22</v>
       </c>
       <c r="F109" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110">
@@ -3198,7 +3198,7 @@
         <v>125</v>
       </c>
       <c r="B110" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C110" t="s">
         <v>26</v>
@@ -3218,19 +3218,19 @@
         <v>126</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>
       </c>
       <c r="E111" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112">
@@ -3238,19 +3238,19 @@
         <v>127</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113">
@@ -3258,16 +3258,16 @@
         <v>128</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
         <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F113" t="s">
         <v>10</v>
@@ -3298,16 +3298,16 @@
         <v>130</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
         <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
         <v>14</v>
@@ -3318,7 +3318,7 @@
         <v>131</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C116" t="s">
         <v>16</v>
@@ -3327,10 +3327,10 @@
         <v>16</v>
       </c>
       <c r="E116" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117">
@@ -3338,7 +3338,7 @@
         <v>132</v>
       </c>
       <c r="B117" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C117" t="s">
         <v>16</v>
@@ -3347,10 +3347,10 @@
         <v>18</v>
       </c>
       <c r="E117" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
@@ -3358,16 +3358,16 @@
         <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D118" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E118" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F118" t="s">
         <v>18</v>
@@ -3378,10 +3378,10 @@
         <v>134</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D119" t="s">
         <v>22</v>
@@ -3401,13 +3401,13 @@
         <v>24</v>
       </c>
       <c r="C120" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D120" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E120" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F120" t="s">
         <v>24</v>
@@ -3424,10 +3424,10 @@
         <v>24</v>
       </c>
       <c r="D121" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E121" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F121" t="s">
         <v>24</v>
@@ -3438,16 +3438,16 @@
         <v>137</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F122" t="s">
         <v>26</v>
@@ -3461,13 +3461,13 @@
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F123" t="s">
         <v>8</v>
@@ -3478,19 +3478,19 @@
         <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125">
@@ -3498,19 +3498,19 @@
         <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
         <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126">
@@ -3518,7 +3518,7 @@
         <v>141</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C126" t="s">
         <v>12</v>
@@ -3527,7 +3527,7 @@
         <v>14</v>
       </c>
       <c r="E126" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
         <v>12</v>
@@ -3538,10 +3538,10 @@
         <v>142</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
         <v>14</v>
@@ -3558,10 +3558,10 @@
         <v>143</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D128" t="s">
         <v>18</v>
@@ -3570,7 +3570,7 @@
         <v>18</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129">
@@ -3598,19 +3598,19 @@
         <v>145</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C130" t="s">
         <v>22</v>
       </c>
       <c r="D130" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E130" t="s">
         <v>22</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131">
@@ -3638,7 +3638,7 @@
         <v>147</v>
       </c>
       <c r="B132" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C132" t="s">
         <v>26</v>
@@ -3647,7 +3647,7 @@
         <v>26</v>
       </c>
       <c r="E132" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F132" t="s">
         <v>24</v>
@@ -3661,16 +3661,16 @@
         <v>26</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E133" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F133" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134">
@@ -3678,19 +3678,19 @@
         <v>149</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E134" t="s">
         <v>7</v>
       </c>
       <c r="F134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135">
@@ -3701,10 +3701,10 @@
         <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E135" t="s">
         <v>10</v>
@@ -3718,13 +3718,13 @@
         <v>151</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
         <v>12</v>
@@ -3738,10 +3738,10 @@
         <v>152</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D137" t="s">
         <v>14</v>
@@ -3758,19 +3758,19 @@
         <v>153</v>
       </c>
       <c r="B138" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C138" t="s">
         <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139">
@@ -3778,16 +3778,16 @@
         <v>154</v>
       </c>
       <c r="B139" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D139" t="s">
         <v>18</v>
       </c>
       <c r="E139" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F139" t="s">
         <v>18</v>
@@ -3798,16 +3798,16 @@
         <v>155</v>
       </c>
       <c r="B140" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C140" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D140" t="s">
         <v>18</v>
       </c>
       <c r="E140" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F140" t="s">
         <v>18</v>
@@ -3818,19 +3818,19 @@
         <v>156</v>
       </c>
       <c r="B141" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C141" t="s">
         <v>20</v>
       </c>
       <c r="D141" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E141" t="s">
         <v>22</v>
       </c>
       <c r="F141" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142">
@@ -3841,16 +3841,16 @@
         <v>22</v>
       </c>
       <c r="C142" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D142" t="s">
         <v>24</v>
       </c>
       <c r="E142" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F142" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143">
@@ -3858,13 +3858,13 @@
         <v>158</v>
       </c>
       <c r="B143" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C143" t="s">
         <v>26</v>
       </c>
       <c r="D143" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E143" t="s">
         <v>24</v>
@@ -3884,7 +3884,7 @@
         <v>26</v>
       </c>
       <c r="D144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E144" t="s">
         <v>26</v>
@@ -3898,13 +3898,13 @@
         <v>160</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E145" t="s">
         <v>7</v>
@@ -3918,19 +3918,19 @@
         <v>161</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E146" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147">
@@ -3938,16 +3938,16 @@
         <v>162</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C147" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F147" t="s">
         <v>10</v>
@@ -3964,7 +3964,7 @@
         <v>12</v>
       </c>
       <c r="D148" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E148" t="s">
         <v>14</v>
@@ -3978,7 +3978,7 @@
         <v>164</v>
       </c>
       <c r="B149" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C149" t="s">
         <v>16</v>
@@ -4010,7 +4010,7 @@
         <v>16</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151">
@@ -4024,13 +4024,13 @@
         <v>18</v>
       </c>
       <c r="D151" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E151" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F151" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152">
@@ -4044,13 +4044,13 @@
         <v>20</v>
       </c>
       <c r="D152" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E152" t="s">
         <v>20</v>
       </c>
       <c r="F152" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153">
@@ -4061,13 +4061,13 @@
         <v>24</v>
       </c>
       <c r="C153" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D153" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E153" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F153" t="s">
         <v>24</v>
@@ -4078,19 +4078,19 @@
         <v>169</v>
       </c>
       <c r="B154" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C154" t="s">
         <v>26</v>
       </c>
       <c r="D154" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E154" t="s">
         <v>26</v>
       </c>
       <c r="F154" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="155">
@@ -4098,10 +4098,10 @@
         <v>170</v>
       </c>
       <c r="B155" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D155" t="s">
         <v>26</v>
@@ -4110,7 +4110,7 @@
         <v>26</v>
       </c>
       <c r="F155" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156">
@@ -4124,7 +4124,7 @@
         <v>8</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E156" t="s">
         <v>7</v>
@@ -4138,19 +4138,19 @@
         <v>172</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158">
@@ -4158,19 +4158,19 @@
         <v>173</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C158" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159">
@@ -4178,10 +4178,10 @@
         <v>174</v>
       </c>
       <c r="B159" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D159" t="s">
         <v>14</v>
@@ -4190,7 +4190,7 @@
         <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160">
@@ -4198,13 +4198,13 @@
         <v>175</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C160" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E160" t="s">
         <v>14</v>
@@ -4218,19 +4218,19 @@
         <v>176</v>
       </c>
       <c r="B161" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C161" t="s">
         <v>18</v>
       </c>
       <c r="D161" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E161" t="s">
         <v>18</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162">
@@ -4238,16 +4238,16 @@
         <v>177</v>
       </c>
       <c r="B162" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D162" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E162" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F162" t="s">
         <v>20</v>
@@ -4258,10 +4258,10 @@
         <v>178</v>
       </c>
       <c r="B163" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C163" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D163" t="s">
         <v>20</v>
@@ -4270,7 +4270,7 @@
         <v>22</v>
       </c>
       <c r="F163" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="164">
@@ -4278,13 +4278,13 @@
         <v>179</v>
       </c>
       <c r="B164" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C164" t="s">
         <v>24</v>
       </c>
       <c r="D164" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E164" t="s">
         <v>22</v>
@@ -4301,16 +4301,16 @@
         <v>26</v>
       </c>
       <c r="C165" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D165" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E165" t="s">
         <v>24</v>
       </c>
       <c r="F165" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166">
@@ -4318,16 +4318,16 @@
         <v>181</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D166" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E166" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F166" t="s">
         <v>26</v>
@@ -4338,7 +4338,7 @@
         <v>182</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>7</v>
@@ -4350,7 +4350,7 @@
         <v>8</v>
       </c>
       <c r="F167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168">
@@ -4358,16 +4358,16 @@
         <v>183</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F168" t="s">
         <v>10</v>
@@ -4378,19 +4378,19 @@
         <v>184</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C169" t="s">
         <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170">
@@ -4404,13 +4404,13 @@
         <v>14</v>
       </c>
       <c r="D170" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E170" t="s">
         <v>14</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171">
@@ -4418,13 +4418,13 @@
         <v>186</v>
       </c>
       <c r="B171" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C171" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E171" t="s">
         <v>14</v>
@@ -4441,13 +4441,13 @@
         <v>18</v>
       </c>
       <c r="C172" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D172" t="s">
         <v>16</v>
       </c>
       <c r="E172" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F172" t="s">
         <v>18</v>
@@ -4464,7 +4464,7 @@
         <v>18</v>
       </c>
       <c r="D173" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E173" t="s">
         <v>20</v>
@@ -4481,13 +4481,13 @@
         <v>20</v>
       </c>
       <c r="C174" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D174" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E174" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F174" t="s">
         <v>20</v>
@@ -4501,7 +4501,7 @@
         <v>22</v>
       </c>
       <c r="C175" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D175" t="s">
         <v>24</v>
@@ -4510,7 +4510,7 @@
         <v>24</v>
       </c>
       <c r="F175" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176">
@@ -4527,7 +4527,7 @@
         <v>24</v>
       </c>
       <c r="E176" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F176" t="s">
         <v>26</v>
@@ -4538,19 +4538,19 @@
         <v>192</v>
       </c>
       <c r="B177" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>26</v>
       </c>
       <c r="D177" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F177" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178">
@@ -4564,13 +4564,13 @@
         <v>7</v>
       </c>
       <c r="D178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179">
@@ -4578,16 +4578,16 @@
         <v>194</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F179" t="s">
         <v>10</v>
@@ -4607,7 +4607,7 @@
         <v>12</v>
       </c>
       <c r="E180" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F180" t="s">
         <v>12</v>
@@ -4621,7 +4621,7 @@
         <v>12</v>
       </c>
       <c r="C181" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D181" t="s">
         <v>12</v>
@@ -4638,13 +4638,13 @@
         <v>197</v>
       </c>
       <c r="B182" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C182" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D182" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E182" t="s">
         <v>16</v>
@@ -4661,16 +4661,16 @@
         <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D183" t="s">
         <v>18</v>
       </c>
       <c r="E183" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184">
@@ -4678,16 +4678,16 @@
         <v>199</v>
       </c>
       <c r="B184" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C184" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D184" t="s">
         <v>20</v>
       </c>
       <c r="E184" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F184" t="s">
         <v>18</v>
@@ -4698,10 +4698,10 @@
         <v>200</v>
       </c>
       <c r="B185" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C185" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D185" t="s">
         <v>20</v>
@@ -4718,7 +4718,7 @@
         <v>201</v>
       </c>
       <c r="B186" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C186" t="s">
         <v>24</v>
@@ -4727,10 +4727,10 @@
         <v>22</v>
       </c>
       <c r="E186" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F186" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187">
@@ -4741,16 +4741,16 @@
         <v>24</v>
       </c>
       <c r="C187" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D187" t="s">
         <v>26</v>
       </c>
       <c r="E187" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F187" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="188">
@@ -4758,19 +4758,19 @@
         <v>203</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E188" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F188" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="189">
@@ -4778,19 +4778,19 @@
         <v>204</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E189" t="s">
         <v>8</v>
       </c>
       <c r="F189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190">
@@ -4801,16 +4801,16 @@
         <v>10</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F190" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191">
@@ -4824,7 +4824,7 @@
         <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
         <v>12</v>
@@ -4847,10 +4847,10 @@
         <v>14</v>
       </c>
       <c r="E192" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F192" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193">
@@ -4861,16 +4861,16 @@
         <v>16</v>
       </c>
       <c r="C193" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D193" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E193" t="s">
         <v>16</v>
       </c>
       <c r="F193" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194">
@@ -4881,10 +4881,10 @@
         <v>18</v>
       </c>
       <c r="C194" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E194" t="s">
         <v>18</v>
@@ -4907,10 +4907,10 @@
         <v>20</v>
       </c>
       <c r="E195" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F195" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196">
@@ -4924,13 +4924,13 @@
         <v>20</v>
       </c>
       <c r="D196" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E196" t="s">
         <v>20</v>
       </c>
       <c r="F196" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197">
@@ -4944,13 +4944,13 @@
         <v>24</v>
       </c>
       <c r="D197" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E197" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F197" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198">
@@ -4958,19 +4958,19 @@
         <v>213</v>
       </c>
       <c r="B198" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C198" t="s">
         <v>24</v>
       </c>
       <c r="D198" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E198" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F198" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="199">
@@ -4978,19 +4978,19 @@
         <v>214</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C199" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D199" t="s">
         <v>26</v>
       </c>
       <c r="E199" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F199" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200">
@@ -5007,7 +5007,7 @@
         <v>8</v>
       </c>
       <c r="E200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F200" t="s">
         <v>8</v>
@@ -5018,19 +5018,19 @@
         <v>216</v>
       </c>
       <c r="B201" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D201" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202">
@@ -5041,16 +5041,16 @@
         <v>12</v>
       </c>
       <c r="C202" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E202" t="s">
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203">
@@ -5058,7 +5058,7 @@
         <v>218</v>
       </c>
       <c r="B203" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C203" t="s">
         <v>14</v>
@@ -5067,7 +5067,7 @@
         <v>14</v>
       </c>
       <c r="E203" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
         <v>14</v>
@@ -5090,7 +5090,7 @@
         <v>14</v>
       </c>
       <c r="F204" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="205">
@@ -5104,7 +5104,7 @@
         <v>16</v>
       </c>
       <c r="D205" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E205" t="s">
         <v>18</v>
@@ -5118,16 +5118,16 @@
         <v>221</v>
       </c>
       <c r="B206" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C206" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D206" t="s">
         <v>20</v>
       </c>
       <c r="E206" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F206" t="s">
         <v>18</v>
@@ -5138,13 +5138,13 @@
         <v>222</v>
       </c>
       <c r="B207" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C207" t="s">
         <v>22</v>
       </c>
       <c r="D207" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E207" t="s">
         <v>20</v>
@@ -5158,7 +5158,7 @@
         <v>223</v>
       </c>
       <c r="B208" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C208" t="s">
         <v>22</v>
@@ -5187,10 +5187,10 @@
         <v>26</v>
       </c>
       <c r="E209" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F209" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210">
@@ -5198,16 +5198,16 @@
         <v>225</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D210" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F210" t="s">
         <v>26</v>
@@ -5218,19 +5218,19 @@
         <v>226</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>7</v>
       </c>
       <c r="D211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E211" t="s">
         <v>8</v>
       </c>
       <c r="F211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212">
@@ -5244,10 +5244,10 @@
         <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F212" t="s">
         <v>10</v>
@@ -5258,16 +5258,16 @@
         <v>228</v>
       </c>
       <c r="B213" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C213" t="s">
         <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E213" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F213" t="s">
         <v>12</v>
@@ -5278,7 +5278,7 @@
         <v>229</v>
       </c>
       <c r="B214" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C214" t="s">
         <v>12</v>
@@ -5307,10 +5307,10 @@
         <v>14</v>
       </c>
       <c r="E215" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F215" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216">
@@ -5324,13 +5324,13 @@
         <v>18</v>
       </c>
       <c r="D216" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E216" t="s">
         <v>18</v>
       </c>
       <c r="F216" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="217">
@@ -5347,10 +5347,10 @@
         <v>18</v>
       </c>
       <c r="E217" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F217" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218">
@@ -5361,16 +5361,16 @@
         <v>20</v>
       </c>
       <c r="C218" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D218" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E218" t="s">
         <v>20</v>
       </c>
       <c r="F218" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="219">
@@ -5378,7 +5378,7 @@
         <v>234</v>
       </c>
       <c r="B219" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C219" t="s">
         <v>24</v>
@@ -5390,7 +5390,7 @@
         <v>22</v>
       </c>
       <c r="F219" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="220">
@@ -5398,16 +5398,16 @@
         <v>235</v>
       </c>
       <c r="B220" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C220" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D220" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E220" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F220" t="s">
         <v>24</v>
@@ -5424,13 +5424,13 @@
         <v>26</v>
       </c>
       <c r="D221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E221" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222">
@@ -5438,19 +5438,19 @@
         <v>237</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223">
@@ -5458,19 +5458,19 @@
         <v>238</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C223" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D223" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224">
@@ -5478,19 +5478,19 @@
         <v>239</v>
       </c>
       <c r="B224" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C224" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D224" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225">
@@ -5504,7 +5504,7 @@
         <v>12</v>
       </c>
       <c r="D225" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E225" t="s">
         <v>12</v>
@@ -5521,13 +5521,13 @@
         <v>14</v>
       </c>
       <c r="C226" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D226" t="s">
         <v>16</v>
       </c>
       <c r="E226" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F226" t="s">
         <v>16</v>
@@ -5541,13 +5541,13 @@
         <v>16</v>
       </c>
       <c r="C227" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D227" t="s">
         <v>16</v>
       </c>
       <c r="E227" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F227" t="s">
         <v>18</v>
@@ -5558,10 +5558,10 @@
         <v>243</v>
       </c>
       <c r="B228" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C228" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D228" t="s">
         <v>20</v>
@@ -5570,7 +5570,7 @@
         <v>20</v>
       </c>
       <c r="F228" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="229">
@@ -5578,19 +5578,19 @@
         <v>244</v>
       </c>
       <c r="B229" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C229" t="s">
         <v>20</v>
       </c>
       <c r="D229" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E229" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F229" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="230">
@@ -5601,10 +5601,10 @@
         <v>24</v>
       </c>
       <c r="C230" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D230" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E230" t="s">
         <v>24</v>
@@ -5621,16 +5621,16 @@
         <v>24</v>
       </c>
       <c r="C231" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D231" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E231" t="s">
         <v>24</v>
       </c>
       <c r="F231" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="232">
@@ -5641,13 +5641,13 @@
         <v>26</v>
       </c>
       <c r="C232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D232" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E232" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F232" t="s">
         <v>26</v>
@@ -5658,10 +5658,10 @@
         <v>248</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D233" t="s">
         <v>8</v>
@@ -5670,7 +5670,7 @@
         <v>7</v>
       </c>
       <c r="F233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234">
@@ -5678,7 +5678,7 @@
         <v>249</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>10</v>
@@ -5687,7 +5687,7 @@
         <v>10</v>
       </c>
       <c r="E234" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F234" t="s">
         <v>10</v>
@@ -5701,10 +5701,10 @@
         <v>12</v>
       </c>
       <c r="C235" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D235" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E235" t="s">
         <v>12</v>
@@ -5718,13 +5718,13 @@
         <v>251</v>
       </c>
       <c r="B236" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C236" t="s">
         <v>14</v>
       </c>
       <c r="D236" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E236" t="s">
         <v>12</v>
@@ -5738,19 +5738,19 @@
         <v>252</v>
       </c>
       <c r="B237" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C237" t="s">
         <v>16</v>
       </c>
       <c r="D237" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E237" t="s">
         <v>16</v>
       </c>
       <c r="F237" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238">
@@ -5758,19 +5758,19 @@
         <v>253</v>
       </c>
       <c r="B238" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C238" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D238" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E238" t="s">
         <v>16</v>
       </c>
       <c r="F238" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="239">
@@ -5787,10 +5787,10 @@
         <v>20</v>
       </c>
       <c r="E239" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F239" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="240">
@@ -5798,10 +5798,10 @@
         <v>255</v>
       </c>
       <c r="B240" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C240" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D240" t="s">
         <v>22</v>
@@ -5818,10 +5818,10 @@
         <v>256</v>
       </c>
       <c r="B241" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C241" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D241" t="s">
         <v>24</v>
@@ -5830,7 +5830,7 @@
         <v>24</v>
       </c>
       <c r="F241" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="242">
@@ -5847,10 +5847,10 @@
         <v>26</v>
       </c>
       <c r="E242" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F242" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="243">
@@ -5858,16 +5858,16 @@
         <v>258</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D243" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E243" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F243" t="s">
         <v>26</v>
@@ -5887,10 +5887,10 @@
         <v>8</v>
       </c>
       <c r="E244" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245">
@@ -5898,19 +5898,19 @@
         <v>260</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D245" t="s">
         <v>10</v>
       </c>
       <c r="E245" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F245" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246">
@@ -5918,19 +5918,19 @@
         <v>261</v>
       </c>
       <c r="B246" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C246" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D246" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E246" t="s">
         <v>12</v>
       </c>
       <c r="F246" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247">
@@ -5947,10 +5947,10 @@
         <v>14</v>
       </c>
       <c r="E247" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F247" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248">
@@ -5958,7 +5958,7 @@
         <v>263</v>
       </c>
       <c r="B248" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C248" t="s">
         <v>16</v>
@@ -5978,19 +5978,19 @@
         <v>264</v>
       </c>
       <c r="B249" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C249" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D249" t="s">
         <v>18</v>
       </c>
       <c r="E249" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F249" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="250">
@@ -5998,16 +5998,16 @@
         <v>265</v>
       </c>
       <c r="B250" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C250" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D250" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E250" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F250" t="s">
         <v>20</v>
@@ -6041,13 +6041,13 @@
         <v>22</v>
       </c>
       <c r="C252" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D252" t="s">
         <v>24</v>
       </c>
       <c r="E252" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F252" t="s">
         <v>22</v>
@@ -6061,13 +6061,13 @@
         <v>26</v>
       </c>
       <c r="C253" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D253" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E253" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F253" t="s">
         <v>24</v>
@@ -6081,13 +6081,13 @@
         <v>26</v>
       </c>
       <c r="C254" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D254" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E254" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F254" t="s">
         <v>26</v>
@@ -6098,19 +6098,19 @@
         <v>270</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>8</v>
       </c>
       <c r="D255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E255" t="s">
         <v>8</v>
       </c>
       <c r="F255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256">
@@ -6118,16 +6118,16 @@
         <v>271</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>10</v>
       </c>
       <c r="D256" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E256" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F256" t="s">
         <v>10</v>
@@ -6138,16 +6138,16 @@
         <v>272</v>
       </c>
       <c r="B257" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C257" t="s">
         <v>12</v>
       </c>
       <c r="D257" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E257" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F257" t="s">
         <v>10</v>
@@ -6158,7 +6158,7 @@
         <v>273</v>
       </c>
       <c r="B258" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C258" t="s">
         <v>12</v>
@@ -6167,7 +6167,7 @@
         <v>14</v>
       </c>
       <c r="E258" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F258" t="s">
         <v>12</v>
@@ -6201,16 +6201,16 @@
         <v>16</v>
       </c>
       <c r="C260" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D260" t="s">
         <v>18</v>
       </c>
       <c r="E260" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F260" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="261">
@@ -6227,10 +6227,10 @@
         <v>20</v>
       </c>
       <c r="E261" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F261" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="262">
@@ -6238,19 +6238,19 @@
         <v>277</v>
       </c>
       <c r="B262" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C262" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D262" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E262" t="s">
         <v>22</v>
       </c>
       <c r="F262" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="263">
@@ -6258,10 +6258,10 @@
         <v>278</v>
       </c>
       <c r="B263" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C263" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D263" t="s">
         <v>22</v>
@@ -6270,7 +6270,7 @@
         <v>22</v>
       </c>
       <c r="F263" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="264">
@@ -6284,10 +6284,10 @@
         <v>24</v>
       </c>
       <c r="D264" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E264" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F264" t="s">
         <v>24</v>
@@ -6304,13 +6304,13 @@
         <v>26</v>
       </c>
       <c r="D265" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E265" t="s">
         <v>26</v>
       </c>
       <c r="F265" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266">
@@ -6318,16 +6318,16 @@
         <v>281</v>
       </c>
       <c r="B266" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C266" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D266" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E266" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F266" t="s">
         <v>8</v>
@@ -6338,10 +6338,10 @@
         <v>282</v>
       </c>
       <c r="B267" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C267" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D267" t="s">
         <v>10</v>
@@ -6350,7 +6350,7 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268">
@@ -6358,19 +6358,19 @@
         <v>283</v>
       </c>
       <c r="B268" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C268" t="s">
         <v>12</v>
       </c>
       <c r="D268" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E268" t="s">
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269">
@@ -6378,19 +6378,19 @@
         <v>284</v>
       </c>
       <c r="B269" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C269" t="s">
         <v>12</v>
       </c>
       <c r="D269" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E269" t="s">
         <v>14</v>
       </c>
       <c r="F269" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270">
@@ -6398,7 +6398,7 @@
         <v>285</v>
       </c>
       <c r="B270" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C270" t="s">
         <v>16</v>
@@ -6418,13 +6418,13 @@
         <v>286</v>
       </c>
       <c r="B271" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C271" t="s">
         <v>18</v>
       </c>
       <c r="D271" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E271" t="s">
         <v>16</v>
@@ -6438,10 +6438,10 @@
         <v>287</v>
       </c>
       <c r="B272" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C272" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D272" t="s">
         <v>18</v>
@@ -6450,7 +6450,7 @@
         <v>20</v>
       </c>
       <c r="F272" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="273">
@@ -6458,16 +6458,16 @@
         <v>288</v>
       </c>
       <c r="B273" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C273" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D273" t="s">
         <v>22</v>
       </c>
       <c r="E273" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F273" t="s">
         <v>22</v>
@@ -6478,10 +6478,10 @@
         <v>289</v>
       </c>
       <c r="B274" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C274" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D274" t="s">
         <v>22</v>
@@ -6490,7 +6490,7 @@
         <v>22</v>
       </c>
       <c r="F274" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="275">
@@ -6510,7 +6510,7 @@
         <v>26</v>
       </c>
       <c r="F275" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="276">
@@ -6521,16 +6521,16 @@
         <v>26</v>
       </c>
       <c r="C276" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D276" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E276" t="s">
         <v>26</v>
       </c>
       <c r="F276" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277">
@@ -6541,13 +6541,13 @@
         <v>7</v>
       </c>
       <c r="C277" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D277" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E277" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F277" t="s">
         <v>8</v>
@@ -6558,19 +6558,19 @@
         <v>293</v>
       </c>
       <c r="B278" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C278" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D278" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E278" t="s">
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279">
@@ -6581,16 +6581,16 @@
         <v>10</v>
       </c>
       <c r="C279" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D279" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E279" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280">
@@ -6601,16 +6601,16 @@
         <v>14</v>
       </c>
       <c r="C280" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D280" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E280" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F280" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281">
@@ -6627,10 +6627,10 @@
         <v>14</v>
       </c>
       <c r="E281" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F281" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="282">
@@ -6638,19 +6638,19 @@
         <v>297</v>
       </c>
       <c r="B282" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C282" t="s">
         <v>16</v>
       </c>
       <c r="D282" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E282" t="s">
         <v>18</v>
       </c>
       <c r="F282" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="283">
@@ -6664,13 +6664,13 @@
         <v>20</v>
       </c>
       <c r="D283" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E283" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F283" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="284">
@@ -6678,7 +6678,7 @@
         <v>299</v>
       </c>
       <c r="B284" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C284" t="s">
         <v>20</v>
@@ -6687,7 +6687,7 @@
         <v>20</v>
       </c>
       <c r="E284" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F284" t="s">
         <v>22</v>
@@ -6701,16 +6701,16 @@
         <v>24</v>
       </c>
       <c r="C285" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D285" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E285" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F285" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="286">
@@ -6718,13 +6718,13 @@
         <v>301</v>
       </c>
       <c r="B286" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C286" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D286" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E286" t="s">
         <v>24</v>
@@ -6741,16 +6741,16 @@
         <v>26</v>
       </c>
       <c r="C287" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D287" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E287" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F287" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="288">
@@ -6758,7 +6758,7 @@
         <v>303</v>
       </c>
       <c r="B288" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C288" t="s">
         <v>7</v>
@@ -6770,7 +6770,7 @@
         <v>7</v>
       </c>
       <c r="F288" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="289">
@@ -6778,19 +6778,19 @@
         <v>304</v>
       </c>
       <c r="B289" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C289" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D289" t="s">
         <v>10</v>
       </c>
       <c r="E289" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290">
@@ -6798,7 +6798,7 @@
         <v>305</v>
       </c>
       <c r="B290" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C290" t="s">
         <v>10</v>
@@ -6821,10 +6821,10 @@
         <v>12</v>
       </c>
       <c r="C291" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D291" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E291" t="s">
         <v>14</v>
@@ -6838,19 +6838,19 @@
         <v>307</v>
       </c>
       <c r="B292" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C292" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D292" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E292" t="s">
         <v>14</v>
       </c>
       <c r="F292" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="293">
@@ -6858,7 +6858,7 @@
         <v>308</v>
       </c>
       <c r="B293" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C293" t="s">
         <v>18</v>
@@ -6870,7 +6870,7 @@
         <v>16</v>
       </c>
       <c r="F293" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="294">
@@ -6878,16 +6878,16 @@
         <v>309</v>
       </c>
       <c r="B294" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C294" t="s">
         <v>18</v>
       </c>
       <c r="D294" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E294" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F294" t="s">
         <v>18</v>
@@ -6898,19 +6898,19 @@
         <v>310</v>
       </c>
       <c r="B295" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C295" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D295" t="s">
         <v>22</v>
       </c>
       <c r="E295" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F295" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="296">
@@ -6924,13 +6924,13 @@
         <v>22</v>
       </c>
       <c r="D296" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E296" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F296" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="297">
@@ -6941,16 +6941,16 @@
         <v>26</v>
       </c>
       <c r="C297" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D297" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E297" t="s">
         <v>26</v>
       </c>
       <c r="F297" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="298">
@@ -6961,16 +6961,16 @@
         <v>26</v>
       </c>
       <c r="C298" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D298" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E298" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F298" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299">
@@ -6984,13 +6984,13 @@
         <v>7</v>
       </c>
       <c r="D299" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E299" t="s">
         <v>8</v>
       </c>
       <c r="F299" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300">
@@ -6998,7 +6998,7 @@
         <v>315</v>
       </c>
       <c r="B300" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C300" t="s">
         <v>10</v>
@@ -7007,10 +7007,10 @@
         <v>10</v>
       </c>
       <c r="E300" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F300" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301">
@@ -7021,7 +7021,7 @@
         <v>12</v>
       </c>
       <c r="C301" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D301" t="s">
         <v>10</v>
